--- a/Inputs_Data_largePlans/72_NJ_NJ-PFRS.xlsx
+++ b/Inputs_Data_largePlans/72_NJ_NJ-PFRS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="5415" tabRatio="886" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="5415" tabRatio="886" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="42" r:id="rId1"/>
@@ -1979,6 +1979,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1988,18 +1994,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3300,16 +3300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512070</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>148165</xdr:rowOff>
+      <xdr:rowOff>221434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>327269</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>8130</xdr:rowOff>
+      <xdr:rowOff>81399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3339,8 +3339,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1862666" y="338665"/>
-          <a:ext cx="6561667" cy="5384465"/>
+          <a:off x="1728339" y="411934"/>
+          <a:ext cx="6504680" cy="5384465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15331,7 +15331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD863D-1EA8-4DE1-86F9-E83EFF328ADA}">
   <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
@@ -15374,11 +15374,11 @@
       <c r="E3" s="11"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -15412,10 +15412,10 @@
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="122">
         <v>14404</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="122"/>
       <c r="F7" s="11">
         <v>40</v>
       </c>
@@ -15440,10 +15440,10 @@
       <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="122">
         <v>11527</v>
       </c>
-      <c r="E8" s="127"/>
+      <c r="E8" s="122"/>
       <c r="F8" s="11">
         <v>41</v>
       </c>
@@ -15470,10 +15470,10 @@
       <c r="C9" s="10">
         <v>4</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="122">
         <v>12679.5</v>
       </c>
-      <c r="E9" s="127"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="11">
         <v>42</v>
       </c>
@@ -15500,10 +15500,10 @@
       <c r="C10" s="10">
         <v>4</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="122">
         <v>12210.75</v>
       </c>
-      <c r="E10" s="127"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="11">
         <v>43</v>
       </c>
@@ -15530,10 +15530,10 @@
       <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="122">
         <v>10897.8</v>
       </c>
-      <c r="E11" s="127"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="11">
         <v>44</v>
       </c>
@@ -15560,10 +15560,10 @@
       <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="122">
         <v>10766.5</v>
       </c>
-      <c r="E12" s="127"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="11">
         <v>45</v>
       </c>
@@ -15590,10 +15590,10 @@
       <c r="C13" s="10">
         <v>9</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="122">
         <v>10499.111111111111</v>
       </c>
-      <c r="E13" s="127"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="11">
         <v>46</v>
       </c>
@@ -15620,10 +15620,10 @@
       <c r="C14" s="10">
         <v>9</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="122">
         <v>12291.333333333334</v>
       </c>
-      <c r="E14" s="127"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="11">
         <v>47</v>
       </c>
@@ -15651,10 +15651,10 @@
       <c r="C15" s="10">
         <v>21</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="122">
         <v>13080.428571428571</v>
       </c>
-      <c r="E15" s="127"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="11">
         <v>48</v>
       </c>
@@ -15672,10 +15672,10 @@
       <c r="C16" s="10">
         <v>14</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="122">
         <v>11606.357142857143</v>
       </c>
-      <c r="E16" s="127"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="11">
         <v>49</v>
       </c>
@@ -15693,10 +15693,10 @@
       <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="122">
         <v>10232.153846153846</v>
       </c>
-      <c r="E17" s="127"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="11">
         <v>50</v>
       </c>
@@ -15714,10 +15714,10 @@
       <c r="C18" s="10">
         <v>25</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="122">
         <v>10751.48</v>
       </c>
-      <c r="E18" s="127"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="11">
         <v>51</v>
       </c>
@@ -15735,10 +15735,10 @@
       <c r="C19" s="10">
         <v>31</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="122">
         <v>12782.838709677419</v>
       </c>
-      <c r="E19" s="127"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="11">
         <v>52</v>
       </c>
@@ -15756,10 +15756,10 @@
       <c r="C20" s="10">
         <v>26</v>
       </c>
-      <c r="D20" s="127">
+      <c r="D20" s="122">
         <v>12963.384615384615</v>
       </c>
-      <c r="E20" s="127"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="11">
         <v>53</v>
       </c>
@@ -15777,10 +15777,10 @@
       <c r="C21" s="10">
         <v>44</v>
       </c>
-      <c r="D21" s="127">
+      <c r="D21" s="122">
         <v>12379</v>
       </c>
-      <c r="E21" s="127"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="11">
         <v>54</v>
       </c>
@@ -15798,10 +15798,10 @@
       <c r="C22" s="10">
         <v>33</v>
       </c>
-      <c r="D22" s="127">
+      <c r="D22" s="122">
         <v>12827</v>
       </c>
-      <c r="E22" s="127"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="11">
         <v>55</v>
       </c>
@@ -15819,10 +15819,10 @@
       <c r="C23" s="10">
         <v>25</v>
       </c>
-      <c r="D23" s="127">
+      <c r="D23" s="122">
         <v>12463</v>
       </c>
-      <c r="E23" s="127"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="11">
         <v>56</v>
       </c>
@@ -15840,10 +15840,10 @@
       <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="127">
+      <c r="D24" s="122">
         <v>13551</v>
       </c>
-      <c r="E24" s="127"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="11">
         <v>57</v>
       </c>
@@ -15861,10 +15861,10 @@
       <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="D25" s="127">
+      <c r="D25" s="122">
         <v>9946</v>
       </c>
-      <c r="E25" s="127"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="11">
         <v>58</v>
       </c>
@@ -15882,10 +15882,10 @@
       <c r="C26" s="10">
         <v>0</v>
       </c>
-      <c r="D26" s="127">
-        <v>0</v>
-      </c>
-      <c r="E26" s="127"/>
+      <c r="D26" s="122">
+        <v>0</v>
+      </c>
+      <c r="E26" s="122"/>
       <c r="F26" s="11">
         <v>59</v>
       </c>
@@ -15903,10 +15903,10 @@
       <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="D27" s="127">
+      <c r="D27" s="122">
         <v>50248.5</v>
       </c>
-      <c r="E27" s="127"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="11">
         <v>60</v>
       </c>
@@ -15924,10 +15924,10 @@
       <c r="C28" s="10">
         <v>1</v>
       </c>
-      <c r="D28" s="127">
+      <c r="D28" s="122">
         <v>11375</v>
       </c>
-      <c r="E28" s="127"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="11">
         <v>61</v>
       </c>
@@ -15945,10 +15945,10 @@
       <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="122">
         <v>13036</v>
       </c>
-      <c r="E29" s="127"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="11">
         <v>62</v>
       </c>
@@ -15966,10 +15966,10 @@
       <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="127">
+      <c r="D30" s="122">
         <v>47205</v>
       </c>
-      <c r="E30" s="127"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="11">
         <v>63</v>
       </c>
@@ -15987,10 +15987,10 @@
       <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="127">
+      <c r="D31" s="122">
         <v>41249</v>
       </c>
-      <c r="E31" s="127"/>
+      <c r="E31" s="122"/>
       <c r="F31" s="11">
         <v>64</v>
       </c>
@@ -16008,10 +16008,10 @@
       <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="127">
+      <c r="D32" s="122">
         <v>11194</v>
       </c>
-      <c r="E32" s="127"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="11">
         <v>65</v>
       </c>
@@ -16029,10 +16029,10 @@
       <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="127">
+      <c r="D33" s="122">
         <v>31216</v>
       </c>
-      <c r="E33" s="127"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="11">
         <v>66</v>
       </c>
@@ -16050,10 +16050,10 @@
       <c r="C34" s="10">
         <v>6</v>
       </c>
-      <c r="D34" s="127">
+      <c r="D34" s="122">
         <v>46267.333333333336</v>
       </c>
-      <c r="E34" s="127"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="11">
         <v>67</v>
       </c>
@@ -16071,10 +16071,10 @@
       <c r="C35" s="10">
         <v>9</v>
       </c>
-      <c r="D35" s="127">
+      <c r="D35" s="122">
         <v>36159.555555555555</v>
       </c>
-      <c r="E35" s="127"/>
+      <c r="E35" s="122"/>
       <c r="F35" s="11">
         <v>68</v>
       </c>
@@ -16092,10 +16092,10 @@
       <c r="C36" s="10">
         <v>16</v>
       </c>
-      <c r="D36" s="127">
+      <c r="D36" s="122">
         <v>46055.4375</v>
       </c>
-      <c r="E36" s="127"/>
+      <c r="E36" s="122"/>
       <c r="F36" s="11">
         <v>69</v>
       </c>
@@ -16113,10 +16113,10 @@
       <c r="C37" s="10">
         <v>19</v>
       </c>
-      <c r="D37" s="127">
+      <c r="D37" s="122">
         <v>44130.894736842107</v>
       </c>
-      <c r="E37" s="127"/>
+      <c r="E37" s="122"/>
       <c r="F37" s="11">
         <v>70</v>
       </c>
@@ -16134,10 +16134,10 @@
       <c r="C38" s="10">
         <v>29</v>
       </c>
-      <c r="D38" s="127">
+      <c r="D38" s="122">
         <v>39793.310344827587</v>
       </c>
-      <c r="E38" s="127"/>
+      <c r="E38" s="122"/>
       <c r="F38" s="11">
         <v>71</v>
       </c>
@@ -16155,10 +16155,10 @@
       <c r="C39" s="10">
         <v>43</v>
       </c>
-      <c r="D39" s="127">
+      <c r="D39" s="122">
         <v>41608.441860465115</v>
       </c>
-      <c r="E39" s="127"/>
+      <c r="E39" s="122"/>
       <c r="F39" s="11">
         <v>72</v>
       </c>
@@ -16176,10 +16176,10 @@
       <c r="C40" s="10">
         <v>41</v>
       </c>
-      <c r="D40" s="127">
+      <c r="D40" s="122">
         <v>45686.609756097561</v>
       </c>
-      <c r="E40" s="127"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="11">
         <v>73</v>
       </c>
@@ -16197,10 +16197,10 @@
       <c r="C41" s="10">
         <v>61</v>
       </c>
-      <c r="D41" s="127">
+      <c r="D41" s="122">
         <v>46406.245901639348</v>
       </c>
-      <c r="E41" s="127"/>
+      <c r="E41" s="122"/>
       <c r="F41" s="11">
         <v>74</v>
       </c>
@@ -16218,10 +16218,10 @@
       <c r="C42" s="10">
         <v>63</v>
       </c>
-      <c r="D42" s="127">
+      <c r="D42" s="122">
         <v>44775.539682539682</v>
       </c>
-      <c r="E42" s="127"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="11">
         <v>75</v>
       </c>
@@ -16239,10 +16239,10 @@
       <c r="C43" s="10">
         <v>87</v>
       </c>
-      <c r="D43" s="127">
+      <c r="D43" s="122">
         <v>43715.643678160923</v>
       </c>
-      <c r="E43" s="127"/>
+      <c r="E43" s="122"/>
       <c r="F43" s="11">
         <v>76</v>
       </c>
@@ -16260,10 +16260,10 @@
       <c r="C44" s="10">
         <v>83</v>
       </c>
-      <c r="D44" s="127">
+      <c r="D44" s="122">
         <v>48934.783132530123</v>
       </c>
-      <c r="E44" s="127"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="11">
         <v>77</v>
       </c>
@@ -16281,10 +16281,10 @@
       <c r="C45" s="10">
         <v>113</v>
       </c>
-      <c r="D45" s="127">
+      <c r="D45" s="122">
         <v>45735.469026548672</v>
       </c>
-      <c r="E45" s="127"/>
+      <c r="E45" s="122"/>
       <c r="F45" s="11">
         <v>78</v>
       </c>
@@ -16302,10 +16302,10 @@
       <c r="C46" s="10">
         <v>131</v>
       </c>
-      <c r="D46" s="127">
+      <c r="D46" s="122">
         <v>47395.038167938932</v>
       </c>
-      <c r="E46" s="127"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="11">
         <v>79</v>
       </c>
@@ -16323,10 +16323,10 @@
       <c r="C47" s="10">
         <v>159</v>
       </c>
-      <c r="D47" s="127">
+      <c r="D47" s="122">
         <v>47707.056603773584</v>
       </c>
-      <c r="E47" s="127"/>
+      <c r="E47" s="122"/>
       <c r="F47" s="11">
         <v>80</v>
       </c>
@@ -16344,10 +16344,10 @@
       <c r="C48" s="10">
         <v>216</v>
       </c>
-      <c r="D48" s="127">
+      <c r="D48" s="122">
         <v>46020.675925925927</v>
       </c>
-      <c r="E48" s="127"/>
+      <c r="E48" s="122"/>
       <c r="F48" s="11">
         <v>81</v>
       </c>
@@ -16365,10 +16365,10 @@
       <c r="C49" s="10">
         <v>308</v>
       </c>
-      <c r="D49" s="127">
+      <c r="D49" s="122">
         <v>50097.762987012989</v>
       </c>
-      <c r="E49" s="127"/>
+      <c r="E49" s="122"/>
       <c r="F49" s="11">
         <v>82</v>
       </c>
@@ -16386,10 +16386,10 @@
       <c r="C50" s="10">
         <v>406</v>
       </c>
-      <c r="D50" s="127">
+      <c r="D50" s="122">
         <v>52760.965517241377</v>
       </c>
-      <c r="E50" s="127"/>
+      <c r="E50" s="122"/>
       <c r="F50" s="11">
         <v>83</v>
       </c>
@@ -16407,10 +16407,10 @@
       <c r="C51" s="10">
         <v>500</v>
       </c>
-      <c r="D51" s="127">
+      <c r="D51" s="122">
         <v>56130.446000000004</v>
       </c>
-      <c r="E51" s="127"/>
+      <c r="E51" s="122"/>
       <c r="F51" s="11">
         <v>84</v>
       </c>
@@ -16428,10 +16428,10 @@
       <c r="C52" s="10">
         <v>626</v>
       </c>
-      <c r="D52" s="127">
+      <c r="D52" s="122">
         <v>59097.535143769965</v>
       </c>
-      <c r="E52" s="127"/>
+      <c r="E52" s="122"/>
       <c r="F52" s="11">
         <v>85</v>
       </c>
@@ -16449,10 +16449,10 @@
       <c r="C53" s="10">
         <v>757</v>
       </c>
-      <c r="D53" s="127">
+      <c r="D53" s="122">
         <v>61449.475561426683</v>
       </c>
-      <c r="E53" s="127"/>
+      <c r="E53" s="122"/>
       <c r="F53" s="11">
         <v>86</v>
       </c>
@@ -16470,10 +16470,10 @@
       <c r="C54" s="10">
         <v>953</v>
       </c>
-      <c r="D54" s="127">
+      <c r="D54" s="122">
         <v>63569.626442812172</v>
       </c>
-      <c r="E54" s="127"/>
+      <c r="E54" s="122"/>
       <c r="F54" s="11">
         <v>87</v>
       </c>
@@ -16491,10 +16491,10 @@
       <c r="C55" s="10">
         <v>1048</v>
       </c>
-      <c r="D55" s="127">
+      <c r="D55" s="122">
         <v>63774.48854961832</v>
       </c>
-      <c r="E55" s="127"/>
+      <c r="E55" s="122"/>
       <c r="F55" s="11">
         <v>88</v>
       </c>
@@ -16512,10 +16512,10 @@
       <c r="C56" s="10">
         <v>1173</v>
       </c>
-      <c r="D56" s="127">
+      <c r="D56" s="122">
         <v>64528.625745950558</v>
       </c>
-      <c r="E56" s="127"/>
+      <c r="E56" s="122"/>
       <c r="F56" s="11">
         <v>89</v>
       </c>
@@ -16533,10 +16533,10 @@
       <c r="C57" s="10">
         <v>1134</v>
       </c>
-      <c r="D57" s="127">
+      <c r="D57" s="122">
         <v>65669.291005291001</v>
       </c>
-      <c r="E57" s="127"/>
+      <c r="E57" s="122"/>
       <c r="F57" s="11">
         <v>90</v>
       </c>
@@ -16554,10 +16554,10 @@
       <c r="C58" s="10">
         <v>1152</v>
       </c>
-      <c r="D58" s="127">
+      <c r="D58" s="122">
         <v>62734.962673611109</v>
       </c>
-      <c r="E58" s="127"/>
+      <c r="E58" s="122"/>
       <c r="F58" s="11">
         <v>91</v>
       </c>
@@ -16575,10 +16575,10 @@
       <c r="C59" s="10">
         <v>1222</v>
       </c>
-      <c r="D59" s="127">
+      <c r="D59" s="122">
         <v>64382.703764320788</v>
       </c>
-      <c r="E59" s="127"/>
+      <c r="E59" s="122"/>
       <c r="F59" s="11">
         <v>92</v>
       </c>
@@ -16596,10 +16596,10 @@
       <c r="C60" s="10">
         <v>1215</v>
       </c>
-      <c r="D60" s="127">
+      <c r="D60" s="122">
         <v>63410.813168724279</v>
       </c>
-      <c r="E60" s="127"/>
+      <c r="E60" s="122"/>
       <c r="F60" s="11">
         <v>93</v>
       </c>
@@ -16617,10 +16617,10 @@
       <c r="C61" s="10">
         <v>1210</v>
       </c>
-      <c r="D61" s="127">
+      <c r="D61" s="122">
         <v>64609.223966942147</v>
       </c>
-      <c r="E61" s="127"/>
+      <c r="E61" s="122"/>
       <c r="F61" s="11">
         <v>94</v>
       </c>
@@ -16638,10 +16638,10 @@
       <c r="C62" s="10">
         <v>1192</v>
       </c>
-      <c r="D62" s="127">
+      <c r="D62" s="122">
         <v>64612.307046979862</v>
       </c>
-      <c r="E62" s="127"/>
+      <c r="E62" s="122"/>
       <c r="F62" s="11">
         <v>95</v>
       </c>
@@ -16659,10 +16659,10 @@
       <c r="C63" s="10">
         <v>1333</v>
       </c>
-      <c r="D63" s="127">
+      <c r="D63" s="122">
         <v>64393.373593398348</v>
       </c>
-      <c r="E63" s="127"/>
+      <c r="E63" s="122"/>
       <c r="F63" s="11">
         <v>96</v>
       </c>
@@ -16680,10 +16680,10 @@
       <c r="C64" s="10">
         <v>1303</v>
       </c>
-      <c r="D64" s="127">
+      <c r="D64" s="122">
         <v>62513.68610897928</v>
       </c>
-      <c r="E64" s="127"/>
+      <c r="E64" s="122"/>
       <c r="F64" s="11">
         <v>97</v>
       </c>
@@ -16701,10 +16701,10 @@
       <c r="C65" s="10">
         <v>1423</v>
       </c>
-      <c r="D65" s="127">
+      <c r="D65" s="122">
         <v>61613.48489107519</v>
       </c>
-      <c r="E65" s="127"/>
+      <c r="E65" s="122"/>
       <c r="F65" s="11">
         <v>98</v>
       </c>
@@ -16722,10 +16722,10 @@
       <c r="C66" s="10">
         <v>1300</v>
       </c>
-      <c r="D66" s="127">
+      <c r="D66" s="122">
         <v>61228.103846153848</v>
       </c>
-      <c r="E66" s="127"/>
+      <c r="E66" s="122"/>
       <c r="F66" s="11">
         <v>99</v>
       </c>
@@ -16743,10 +16743,10 @@
       <c r="C67" s="10">
         <v>1238</v>
       </c>
-      <c r="D67" s="127">
+      <c r="D67" s="122">
         <v>60763.493537964459</v>
       </c>
-      <c r="E67" s="127"/>
+      <c r="E67" s="122"/>
       <c r="F67" s="11">
         <v>100</v>
       </c>
@@ -16764,10 +16764,10 @@
       <c r="C68" s="10">
         <v>1136</v>
       </c>
-      <c r="D68" s="127">
+      <c r="D68" s="122">
         <v>59972.640845070426</v>
       </c>
-      <c r="E68" s="127"/>
+      <c r="E68" s="122"/>
       <c r="F68" s="11">
         <v>102</v>
       </c>
@@ -16785,10 +16785,10 @@
       <c r="C69" s="10">
         <v>1256</v>
       </c>
-      <c r="D69" s="127">
+      <c r="D69" s="122">
         <v>58259.828025477706</v>
       </c>
-      <c r="E69" s="127"/>
+      <c r="E69" s="122"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
@@ -16797,10 +16797,10 @@
       <c r="C70" s="10">
         <v>1201</v>
       </c>
-      <c r="D70" s="127">
+      <c r="D70" s="122">
         <v>58818.262281432137</v>
       </c>
-      <c r="E70" s="127"/>
+      <c r="E70" s="122"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
@@ -16809,10 +16809,10 @@
       <c r="C71" s="10">
         <v>1295</v>
       </c>
-      <c r="D71" s="127">
+      <c r="D71" s="122">
         <v>56960.871814671817</v>
       </c>
-      <c r="E71" s="127"/>
+      <c r="E71" s="122"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
@@ -16821,10 +16821,10 @@
       <c r="C72" s="10">
         <v>1290</v>
       </c>
-      <c r="D72" s="127">
+      <c r="D72" s="122">
         <v>55605.576744186044</v>
       </c>
-      <c r="E72" s="127"/>
+      <c r="E72" s="122"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
@@ -16833,10 +16833,10 @@
       <c r="C73" s="10">
         <v>1403</v>
       </c>
-      <c r="D73" s="127">
+      <c r="D73" s="122">
         <v>53204.919458303637</v>
       </c>
-      <c r="E73" s="127"/>
+      <c r="E73" s="122"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
@@ -16845,10 +16845,10 @@
       <c r="C74" s="10">
         <v>1320</v>
       </c>
-      <c r="D74" s="127">
+      <c r="D74" s="122">
         <v>52790.661363636362</v>
       </c>
-      <c r="E74" s="127"/>
+      <c r="E74" s="122"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
@@ -16857,10 +16857,10 @@
       <c r="C75" s="10">
         <v>964</v>
       </c>
-      <c r="D75" s="127">
+      <c r="D75" s="122">
         <v>50680.669087136928</v>
       </c>
-      <c r="E75" s="127"/>
+      <c r="E75" s="122"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
@@ -16869,10 +16869,10 @@
       <c r="C76" s="10">
         <v>968</v>
       </c>
-      <c r="D76" s="127">
+      <c r="D76" s="122">
         <v>48133.721074380162</v>
       </c>
-      <c r="E76" s="127"/>
+      <c r="E76" s="122"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
@@ -16881,10 +16881,10 @@
       <c r="C77" s="10">
         <v>1095</v>
       </c>
-      <c r="D77" s="127">
+      <c r="D77" s="122">
         <v>48869.841095890413</v>
       </c>
-      <c r="E77" s="127"/>
+      <c r="E77" s="122"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78">
@@ -16893,10 +16893,10 @@
       <c r="C78" s="10">
         <v>1093</v>
       </c>
-      <c r="D78" s="127">
+      <c r="D78" s="122">
         <v>47153.872827081424</v>
       </c>
-      <c r="E78" s="127"/>
+      <c r="E78" s="122"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
@@ -16905,10 +16905,10 @@
       <c r="C79" s="10">
         <v>895</v>
       </c>
-      <c r="D79" s="127">
+      <c r="D79" s="122">
         <v>45900.394413407819</v>
       </c>
-      <c r="E79" s="127"/>
+      <c r="E79" s="122"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
@@ -16917,10 +16917,10 @@
       <c r="C80" s="10">
         <v>785</v>
       </c>
-      <c r="D80" s="127">
+      <c r="D80" s="122">
         <v>44523.83312101911</v>
       </c>
-      <c r="E80" s="127"/>
+      <c r="E80" s="122"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
@@ -16929,10 +16929,10 @@
       <c r="C81" s="10">
         <v>753</v>
       </c>
-      <c r="D81" s="127">
+      <c r="D81" s="122">
         <v>44339.944223107566</v>
       </c>
-      <c r="E81" s="127"/>
+      <c r="E81" s="122"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
@@ -16941,10 +16941,10 @@
       <c r="C82" s="10">
         <v>701</v>
       </c>
-      <c r="D82" s="127">
+      <c r="D82" s="122">
         <v>41961.323823109844</v>
       </c>
-      <c r="E82" s="127"/>
+      <c r="E82" s="122"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
@@ -16953,10 +16953,10 @@
       <c r="C83" s="10">
         <v>644</v>
       </c>
-      <c r="D83" s="127">
+      <c r="D83" s="122">
         <v>41505.066770186335</v>
       </c>
-      <c r="E83" s="127"/>
+      <c r="E83" s="122"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
@@ -16965,10 +16965,10 @@
       <c r="C84" s="10">
         <v>611</v>
       </c>
-      <c r="D84" s="127">
+      <c r="D84" s="122">
         <v>39769.202945990182</v>
       </c>
-      <c r="E84" s="127"/>
+      <c r="E84" s="122"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
@@ -16977,10 +16977,10 @@
       <c r="C85" s="10">
         <v>525</v>
       </c>
-      <c r="D85" s="127">
+      <c r="D85" s="122">
         <v>38398.902857142857</v>
       </c>
-      <c r="E85" s="127"/>
+      <c r="E85" s="122"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
@@ -16989,10 +16989,10 @@
       <c r="C86" s="10">
         <v>480</v>
       </c>
-      <c r="D86" s="127">
+      <c r="D86" s="122">
         <v>36151</v>
       </c>
-      <c r="E86" s="127"/>
+      <c r="E86" s="122"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
@@ -17001,10 +17001,10 @@
       <c r="C87" s="10">
         <v>458</v>
       </c>
-      <c r="D87" s="127">
+      <c r="D87" s="122">
         <v>35213.203056768558</v>
       </c>
-      <c r="E87" s="127"/>
+      <c r="E87" s="122"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
@@ -17013,10 +17013,10 @@
       <c r="C88" s="10">
         <v>421</v>
       </c>
-      <c r="D88" s="127">
+      <c r="D88" s="122">
         <v>33797.501187648457</v>
       </c>
-      <c r="E88" s="127"/>
+      <c r="E88" s="122"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
@@ -17025,10 +17025,10 @@
       <c r="C89" s="10">
         <v>403</v>
       </c>
-      <c r="D89" s="127">
+      <c r="D89" s="122">
         <v>33799.213399503722</v>
       </c>
-      <c r="E89" s="127"/>
+      <c r="E89" s="122"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
@@ -17037,10 +17037,10 @@
       <c r="C90" s="10">
         <v>407</v>
       </c>
-      <c r="D90" s="127">
+      <c r="D90" s="122">
         <v>31177.457002457002</v>
       </c>
-      <c r="E90" s="127"/>
+      <c r="E90" s="122"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
@@ -17049,10 +17049,10 @@
       <c r="C91" s="10">
         <v>343</v>
       </c>
-      <c r="D91" s="127">
+      <c r="D91" s="122">
         <v>30527.927113702623</v>
       </c>
-      <c r="E91" s="127"/>
+      <c r="E91" s="122"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
@@ -17061,10 +17061,10 @@
       <c r="C92" s="10">
         <v>313</v>
       </c>
-      <c r="D92" s="127">
+      <c r="D92" s="122">
         <v>29157.031948881788</v>
       </c>
-      <c r="E92" s="127"/>
+      <c r="E92" s="122"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
@@ -17073,10 +17073,10 @@
       <c r="C93" s="10">
         <v>324</v>
       </c>
-      <c r="D93" s="127">
+      <c r="D93" s="122">
         <v>28560.70061728395</v>
       </c>
-      <c r="E93" s="127"/>
+      <c r="E93" s="122"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
@@ -17085,10 +17085,10 @@
       <c r="C94" s="10">
         <v>270</v>
       </c>
-      <c r="D94" s="127">
+      <c r="D94" s="122">
         <v>28590.607407407406</v>
       </c>
-      <c r="E94" s="127"/>
+      <c r="E94" s="122"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
@@ -17097,10 +17097,10 @@
       <c r="C95" s="10">
         <v>234</v>
       </c>
-      <c r="D95" s="127">
+      <c r="D95" s="122">
         <v>27685.311965811965</v>
       </c>
-      <c r="E95" s="127"/>
+      <c r="E95" s="122"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
@@ -17109,10 +17109,10 @@
       <c r="C96" s="10">
         <v>185</v>
       </c>
-      <c r="D96" s="127">
+      <c r="D96" s="122">
         <v>25745.513513513513</v>
       </c>
-      <c r="E96" s="127"/>
+      <c r="E96" s="122"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
@@ -17121,10 +17121,10 @@
       <c r="C97" s="10">
         <v>146</v>
       </c>
-      <c r="D97" s="127">
+      <c r="D97" s="122">
         <v>25647.232876712329</v>
       </c>
-      <c r="E97" s="127"/>
+      <c r="E97" s="122"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
@@ -17133,10 +17133,10 @@
       <c r="C98" s="10">
         <v>91</v>
       </c>
-      <c r="D98" s="127">
+      <c r="D98" s="122">
         <v>24513.439560439561</v>
       </c>
-      <c r="E98" s="127"/>
+      <c r="E98" s="122"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
@@ -17145,10 +17145,10 @@
       <c r="C99" s="10">
         <v>76</v>
       </c>
-      <c r="D99" s="127">
+      <c r="D99" s="122">
         <v>24555.263157894737</v>
       </c>
-      <c r="E99" s="127"/>
+      <c r="E99" s="122"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
@@ -17157,10 +17157,10 @@
       <c r="C100" s="10">
         <v>53</v>
       </c>
-      <c r="D100" s="127">
+      <c r="D100" s="122">
         <v>24717.245283018867</v>
       </c>
-      <c r="E100" s="127"/>
+      <c r="E100" s="122"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
@@ -17169,10 +17169,10 @@
       <c r="C101" s="10">
         <v>34</v>
       </c>
-      <c r="D101" s="127">
+      <c r="D101" s="122">
         <v>22884.294117647059</v>
       </c>
-      <c r="E101" s="127"/>
+      <c r="E101" s="122"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -17181,10 +17181,10 @@
       <c r="C102" s="10">
         <v>11</v>
       </c>
-      <c r="D102" s="127">
+      <c r="D102" s="122">
         <v>24469.363636363636</v>
       </c>
-      <c r="E102" s="127"/>
+      <c r="E102" s="122"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
@@ -17193,10 +17193,10 @@
       <c r="C103" s="10">
         <v>8</v>
       </c>
-      <c r="D103" s="127">
+      <c r="D103" s="122">
         <v>26597</v>
       </c>
-      <c r="E103" s="127"/>
+      <c r="E103" s="122"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
@@ -17205,10 +17205,10 @@
       <c r="C104" s="10">
         <v>6</v>
       </c>
-      <c r="D104" s="127">
+      <c r="D104" s="122">
         <v>25546.166666666668</v>
       </c>
-      <c r="E104" s="127"/>
+      <c r="E104" s="122"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
@@ -17217,10 +17217,10 @@
       <c r="C105" s="10">
         <v>2</v>
       </c>
-      <c r="D105" s="127">
+      <c r="D105" s="122">
         <v>18691.5</v>
       </c>
-      <c r="E105" s="127"/>
+      <c r="E105" s="122"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
@@ -17229,10 +17229,10 @@
       <c r="C106" s="10">
         <v>2</v>
       </c>
-      <c r="D106" s="127">
+      <c r="D106" s="122">
         <v>22764</v>
       </c>
-      <c r="E106" s="127"/>
+      <c r="E106" s="122"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17706,14 +17706,14 @@
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="125" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122" t="s">
+      <c r="D28" s="125"/>
+      <c r="E28" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="F28" s="122"/>
+      <c r="F28" s="126"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -19742,14 +19742,14 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116"/>
-      <c r="B116" s="123" t="s">
+      <c r="B116" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="C116" s="123"/>
-      <c r="D116" s="123" t="s">
+      <c r="C116" s="127"/>
+      <c r="D116" s="127" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="123"/>
+      <c r="E116" s="127"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117"/>
@@ -20239,7 +20239,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D940A8C-A753-45E5-AE69-A3935EE58367}">
-  <dimension ref="A1:CK148"/>
+  <dimension ref="A1:BT148"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="AN5" activePane="bottomRight" state="frozen"/>
@@ -20285,46 +20285,46 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="I2" s="122" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="I2" s="126" t="s">
         <v>463</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="P2" s="122" t="s">
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="P2" s="126" t="s">
         <v>469</v>
       </c>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="W2" s="122" t="s">
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="W2" s="126" t="s">
         <v>472</v>
       </c>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
       <c r="AA2" s="26"/>
       <c r="AB2" s="26"/>
-      <c r="AD2" s="122" t="s">
+      <c r="AD2" s="126" t="s">
         <v>470</v>
       </c>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
       <c r="AH2" s="26"/>
       <c r="AI2" s="26"/>
-      <c r="AK2" s="122" t="s">
+      <c r="AK2" s="126" t="s">
         <v>471</v>
       </c>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
     </row>
     <row r="3" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -20523,7 +20523,7 @@
         <f>SUM(G5,N5,U5,AB5,AI5,AP5,AW5)</f>
         <v>14404</v>
       </c>
-      <c r="BA5" s="127">
+      <c r="BA5" s="122">
         <f>AZ5/AY5</f>
         <v>14404</v>
       </c>
@@ -20620,7 +20620,7 @@
         <f t="shared" ref="AZ6:AZ69" si="15">SUM(G6,N6,U6,AB6,AI6,AP6,AW6)</f>
         <v>23054</v>
       </c>
-      <c r="BA6" s="127">
+      <c r="BA6" s="122">
         <f t="shared" ref="BA6:BA69" si="16">AZ6/AY6</f>
         <v>11527</v>
       </c>
@@ -20629,10 +20629,10 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20712,7 +20712,7 @@
         <f t="shared" si="15"/>
         <v>50718</v>
       </c>
-      <c r="BA7" s="127">
+      <c r="BA7" s="122">
         <f t="shared" si="16"/>
         <v>12679.5</v>
       </c>
@@ -20721,10 +20721,10 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20812,7 +20812,7 @@
         <f t="shared" si="15"/>
         <v>48843</v>
       </c>
-      <c r="BA8" s="127">
+      <c r="BA8" s="122">
         <f t="shared" si="16"/>
         <v>12210.75</v>
       </c>
@@ -20821,10 +20821,10 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20912,7 +20912,7 @@
         <f t="shared" si="15"/>
         <v>54489</v>
       </c>
-      <c r="BA9" s="127">
+      <c r="BA9" s="122">
         <f t="shared" si="16"/>
         <v>10897.8</v>
       </c>
@@ -20921,10 +20921,10 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21008,7 +21008,7 @@
         <f t="shared" si="15"/>
         <v>43066</v>
       </c>
-      <c r="BA10" s="127">
+      <c r="BA10" s="122">
         <f t="shared" si="16"/>
         <v>10766.5</v>
       </c>
@@ -21017,10 +21017,10 @@
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21104,7 +21104,7 @@
         <f t="shared" si="15"/>
         <v>94492</v>
       </c>
-      <c r="BA11" s="127">
+      <c r="BA11" s="122">
         <f t="shared" si="16"/>
         <v>10499.111111111111</v>
       </c>
@@ -21113,10 +21113,10 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21204,7 +21204,7 @@
         <f t="shared" si="15"/>
         <v>110622</v>
       </c>
-      <c r="BA12" s="127">
+      <c r="BA12" s="122">
         <f t="shared" si="16"/>
         <v>12291.333333333334</v>
       </c>
@@ -21213,10 +21213,10 @@
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21308,7 +21308,7 @@
         <f t="shared" si="15"/>
         <v>274689</v>
       </c>
-      <c r="BA13" s="127">
+      <c r="BA13" s="122">
         <f t="shared" si="16"/>
         <v>13080.428571428571</v>
       </c>
@@ -21317,10 +21317,10 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21412,7 +21412,7 @@
         <f t="shared" si="15"/>
         <v>162489</v>
       </c>
-      <c r="BA14" s="127">
+      <c r="BA14" s="122">
         <f t="shared" si="16"/>
         <v>11606.357142857143</v>
       </c>
@@ -21421,10 +21421,10 @@
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21512,7 +21512,7 @@
         <f t="shared" si="15"/>
         <v>133018</v>
       </c>
-      <c r="BA15" s="127">
+      <c r="BA15" s="122">
         <f t="shared" si="16"/>
         <v>10232.153846153846</v>
       </c>
@@ -21521,10 +21521,10 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21612,7 +21612,7 @@
         <f t="shared" si="15"/>
         <v>268787</v>
       </c>
-      <c r="BA16" s="127">
+      <c r="BA16" s="122">
         <f t="shared" si="16"/>
         <v>10751.48</v>
       </c>
@@ -21621,10 +21621,10 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21716,7 +21716,7 @@
         <f t="shared" si="15"/>
         <v>396268</v>
       </c>
-      <c r="BA17" s="127">
+      <c r="BA17" s="122">
         <f t="shared" si="16"/>
         <v>12782.838709677419</v>
       </c>
@@ -21725,10 +21725,10 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21820,7 +21820,7 @@
         <f t="shared" si="15"/>
         <v>337048</v>
       </c>
-      <c r="BA18" s="127">
+      <c r="BA18" s="122">
         <f t="shared" si="16"/>
         <v>12963.384615384615</v>
       </c>
@@ -21829,10 +21829,10 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -21924,7 +21924,7 @@
         <f t="shared" si="15"/>
         <v>544676</v>
       </c>
-      <c r="BA19" s="127">
+      <c r="BA19" s="122">
         <f t="shared" si="16"/>
         <v>12379</v>
       </c>
@@ -21933,10 +21933,10 @@
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22028,7 +22028,7 @@
         <f t="shared" si="15"/>
         <v>423291</v>
       </c>
-      <c r="BA20" s="127">
+      <c r="BA20" s="122">
         <f t="shared" si="16"/>
         <v>12827</v>
       </c>
@@ -22037,10 +22037,10 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22132,7 +22132,7 @@
         <f t="shared" si="15"/>
         <v>311575</v>
       </c>
-      <c r="BA21" s="127">
+      <c r="BA21" s="122">
         <f t="shared" si="16"/>
         <v>12463</v>
       </c>
@@ -22141,10 +22141,10 @@
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22232,7 +22232,7 @@
         <f t="shared" si="15"/>
         <v>67755</v>
       </c>
-      <c r="BA22" s="127">
+      <c r="BA22" s="122">
         <f t="shared" si="16"/>
         <v>13551</v>
       </c>
@@ -22241,10 +22241,10 @@
       <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22324,7 +22324,7 @@
         <f t="shared" si="15"/>
         <v>19892</v>
       </c>
-      <c r="BA23" s="127">
+      <c r="BA23" s="122">
         <f t="shared" si="16"/>
         <v>9946</v>
       </c>
@@ -22333,10 +22333,10 @@
       <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22412,7 +22412,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA24" s="127">
+      <c r="BA24" s="122">
         <v>0</v>
       </c>
     </row>
@@ -22420,10 +22420,10 @@
       <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22507,7 +22507,7 @@
         <f t="shared" si="15"/>
         <v>100497</v>
       </c>
-      <c r="BA25" s="127">
+      <c r="BA25" s="122">
         <f t="shared" si="16"/>
         <v>50248.5</v>
       </c>
@@ -22516,10 +22516,10 @@
       <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22599,7 +22599,7 @@
         <f t="shared" si="15"/>
         <v>11375</v>
       </c>
-      <c r="BA26" s="127">
+      <c r="BA26" s="122">
         <f t="shared" si="16"/>
         <v>11375</v>
       </c>
@@ -22608,10 +22608,10 @@
       <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <f t="shared" si="15"/>
         <v>13036</v>
       </c>
-      <c r="BA27" s="127">
+      <c r="BA27" s="122">
         <f t="shared" si="16"/>
         <v>13036</v>
       </c>
@@ -22700,10 +22700,10 @@
       <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22783,7 +22783,7 @@
         <f t="shared" si="15"/>
         <v>94410</v>
       </c>
-      <c r="BA28" s="127">
+      <c r="BA28" s="122">
         <f t="shared" si="16"/>
         <v>47205</v>
       </c>
@@ -22792,10 +22792,10 @@
       <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22875,7 +22875,7 @@
         <f t="shared" si="15"/>
         <v>41249</v>
       </c>
-      <c r="BA29" s="127">
+      <c r="BA29" s="122">
         <f t="shared" si="16"/>
         <v>41249</v>
       </c>
@@ -22884,10 +22884,10 @@
       <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -22967,7 +22967,7 @@
         <f t="shared" si="15"/>
         <v>11194</v>
       </c>
-      <c r="BA30" s="127">
+      <c r="BA30" s="122">
         <f t="shared" si="16"/>
         <v>11194</v>
       </c>
@@ -22976,10 +22976,10 @@
       <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23061,7 +23061,7 @@
         <f t="shared" si="15"/>
         <v>31216</v>
       </c>
-      <c r="BA31" s="127">
+      <c r="BA31" s="122">
         <f t="shared" si="16"/>
         <v>31216</v>
       </c>
@@ -23070,10 +23070,10 @@
       <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23171,7 +23171,7 @@
         <f t="shared" si="15"/>
         <v>277604</v>
       </c>
-      <c r="BA32" s="127">
+      <c r="BA32" s="122">
         <f t="shared" si="16"/>
         <v>46267.333333333336</v>
       </c>
@@ -23180,10 +23180,10 @@
       <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23283,7 +23283,7 @@
         <f t="shared" si="15"/>
         <v>325436</v>
       </c>
-      <c r="BA33" s="127">
+      <c r="BA33" s="122">
         <f t="shared" si="16"/>
         <v>36159.555555555555</v>
       </c>
@@ -23292,10 +23292,10 @@
       <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <f t="shared" si="15"/>
         <v>736887</v>
       </c>
-      <c r="BA34" s="127">
+      <c r="BA34" s="122">
         <f t="shared" si="16"/>
         <v>46055.4375</v>
       </c>
@@ -23402,10 +23402,10 @@
       <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <f t="shared" si="15"/>
         <v>838487</v>
       </c>
-      <c r="BA35" s="127">
+      <c r="BA35" s="122">
         <f t="shared" si="16"/>
         <v>44130.894736842107</v>
       </c>
@@ -23518,10 +23518,10 @@
       <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23629,7 +23629,7 @@
         <f t="shared" si="15"/>
         <v>1154006</v>
       </c>
-      <c r="BA36" s="127">
+      <c r="BA36" s="122">
         <f t="shared" si="16"/>
         <v>39793.310344827587</v>
       </c>
@@ -23638,10 +23638,10 @@
       <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <f t="shared" si="15"/>
         <v>1789163</v>
       </c>
-      <c r="BA37" s="127">
+      <c r="BA37" s="122">
         <f t="shared" si="16"/>
         <v>41608.441860465115</v>
       </c>
@@ -23758,10 +23758,10 @@
       <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23865,7 +23865,7 @@
         <f t="shared" si="15"/>
         <v>1873151</v>
       </c>
-      <c r="BA38" s="127">
+      <c r="BA38" s="122">
         <f t="shared" si="16"/>
         <v>45686.609756097561</v>
       </c>
@@ -23874,10 +23874,10 @@
       <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23985,7 +23985,7 @@
         <f t="shared" si="15"/>
         <v>2830781</v>
       </c>
-      <c r="BA39" s="127">
+      <c r="BA39" s="122">
         <f t="shared" si="16"/>
         <v>46406.245901639348</v>
       </c>
@@ -23994,10 +23994,10 @@
       <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24109,7 +24109,7 @@
         <f t="shared" si="15"/>
         <v>2820859</v>
       </c>
-      <c r="BA40" s="127">
+      <c r="BA40" s="122">
         <f t="shared" si="16"/>
         <v>44775.539682539682</v>
       </c>
@@ -24118,10 +24118,10 @@
       <c r="A41" s="11">
         <v>39</v>
       </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24239,7 +24239,7 @@
         <f t="shared" si="15"/>
         <v>3803261</v>
       </c>
-      <c r="BA41" s="127">
+      <c r="BA41" s="122">
         <f t="shared" si="16"/>
         <v>43715.643678160923</v>
       </c>
@@ -24367,7 +24367,7 @@
         <f t="shared" si="15"/>
         <v>4061587</v>
       </c>
-      <c r="BA42" s="127">
+      <c r="BA42" s="122">
         <f t="shared" si="16"/>
         <v>48934.783132530123</v>
       </c>
@@ -24495,7 +24495,7 @@
         <f t="shared" si="15"/>
         <v>5168108</v>
       </c>
-      <c r="BA43" s="127">
+      <c r="BA43" s="122">
         <f t="shared" si="16"/>
         <v>45735.469026548672</v>
       </c>
@@ -24633,7 +24633,7 @@
         <f t="shared" si="15"/>
         <v>6208750</v>
       </c>
-      <c r="BA44" s="127">
+      <c r="BA44" s="122">
         <f t="shared" si="16"/>
         <v>47395.038167938932</v>
       </c>
@@ -24765,7 +24765,7 @@
         <f t="shared" si="15"/>
         <v>7585422</v>
       </c>
-      <c r="BA45" s="127">
+      <c r="BA45" s="122">
         <f t="shared" si="16"/>
         <v>47707.056603773584</v>
       </c>
@@ -24907,7 +24907,7 @@
         <f t="shared" si="15"/>
         <v>9940466</v>
       </c>
-      <c r="BA46" s="127">
+      <c r="BA46" s="122">
         <f t="shared" si="16"/>
         <v>46020.675925925927</v>
       </c>
@@ -25061,7 +25061,7 @@
         <f t="shared" si="15"/>
         <v>15430111</v>
       </c>
-      <c r="BA47" s="127">
+      <c r="BA47" s="122">
         <f t="shared" si="16"/>
         <v>50097.762987012989</v>
       </c>
@@ -25213,7 +25213,7 @@
         <f t="shared" si="15"/>
         <v>21420952</v>
       </c>
-      <c r="BA48" s="127">
+      <c r="BA48" s="122">
         <f t="shared" si="16"/>
         <v>52760.965517241377</v>
       </c>
@@ -25357,7 +25357,7 @@
         <f t="shared" si="15"/>
         <v>28065223</v>
       </c>
-      <c r="BA49" s="127">
+      <c r="BA49" s="122">
         <f t="shared" si="16"/>
         <v>56130.446000000004</v>
       </c>
@@ -25505,7 +25505,7 @@
         <f t="shared" si="15"/>
         <v>36995057</v>
       </c>
-      <c r="BA50" s="127">
+      <c r="BA50" s="122">
         <f t="shared" si="16"/>
         <v>59097.535143769965</v>
       </c>
@@ -25657,7 +25657,7 @@
         <f t="shared" si="15"/>
         <v>46517253</v>
       </c>
-      <c r="BA51" s="127">
+      <c r="BA51" s="122">
         <f t="shared" si="16"/>
         <v>61449.475561426683</v>
       </c>
@@ -25805,7 +25805,7 @@
         <f t="shared" si="15"/>
         <v>60581854</v>
       </c>
-      <c r="BA52" s="127">
+      <c r="BA52" s="122">
         <f t="shared" si="16"/>
         <v>63569.626442812172</v>
       </c>
@@ -25949,7 +25949,7 @@
         <f t="shared" si="15"/>
         <v>66835664</v>
       </c>
-      <c r="BA53" s="127">
+      <c r="BA53" s="122">
         <f t="shared" si="16"/>
         <v>63774.48854961832</v>
       </c>
@@ -26097,7 +26097,7 @@
         <f t="shared" si="15"/>
         <v>75692078</v>
       </c>
-      <c r="BA54" s="127">
+      <c r="BA54" s="122">
         <f t="shared" si="16"/>
         <v>64528.625745950558</v>
       </c>
@@ -26249,7 +26249,7 @@
         <f t="shared" si="15"/>
         <v>74468976</v>
       </c>
-      <c r="BA55" s="127">
+      <c r="BA55" s="122">
         <f t="shared" si="16"/>
         <v>65669.291005291001</v>
       </c>
@@ -26403,7 +26403,7 @@
         <f t="shared" si="15"/>
         <v>72270677</v>
       </c>
-      <c r="BA56" s="127">
+      <c r="BA56" s="122">
         <f t="shared" si="16"/>
         <v>62734.962673611109</v>
       </c>
@@ -26555,7 +26555,7 @@
         <f t="shared" si="15"/>
         <v>78675664</v>
       </c>
-      <c r="BA57" s="127">
+      <c r="BA57" s="122">
         <f t="shared" si="16"/>
         <v>64382.703764320788</v>
       </c>
@@ -26697,7 +26697,7 @@
         <f t="shared" si="15"/>
         <v>77044138</v>
       </c>
-      <c r="BA58" s="127">
+      <c r="BA58" s="122">
         <f t="shared" si="16"/>
         <v>63410.813168724279</v>
       </c>
@@ -26839,7 +26839,7 @@
         <f t="shared" si="15"/>
         <v>78177161</v>
       </c>
-      <c r="BA59" s="127">
+      <c r="BA59" s="122">
         <f t="shared" si="16"/>
         <v>64609.223966942147</v>
       </c>
@@ -26981,7 +26981,7 @@
         <f t="shared" si="15"/>
         <v>77017870</v>
       </c>
-      <c r="BA60" s="127">
+      <c r="BA60" s="122">
         <f t="shared" si="16"/>
         <v>64612.307046979862</v>
       </c>
@@ -27119,7 +27119,7 @@
         <f t="shared" si="15"/>
         <v>85836367</v>
       </c>
-      <c r="BA61" s="127">
+      <c r="BA61" s="122">
         <f t="shared" si="16"/>
         <v>64393.373593398348</v>
       </c>
@@ -27261,7 +27261,7 @@
         <f t="shared" si="15"/>
         <v>81455333</v>
       </c>
-      <c r="BA62" s="127">
+      <c r="BA62" s="122">
         <f t="shared" si="16"/>
         <v>62513.68610897928</v>
       </c>
@@ -27403,7 +27403,7 @@
         <f t="shared" si="15"/>
         <v>87675989</v>
       </c>
-      <c r="BA63" s="127">
+      <c r="BA63" s="122">
         <f t="shared" si="16"/>
         <v>61613.48489107519</v>
       </c>
@@ -27541,7 +27541,7 @@
         <f t="shared" si="15"/>
         <v>79596535</v>
       </c>
-      <c r="BA64" s="127">
+      <c r="BA64" s="122">
         <f t="shared" si="16"/>
         <v>61228.103846153848</v>
       </c>
@@ -27683,7 +27683,7 @@
         <f t="shared" si="15"/>
         <v>75225205</v>
       </c>
-      <c r="BA65" s="127">
+      <c r="BA65" s="122">
         <f t="shared" si="16"/>
         <v>60763.493537964459</v>
       </c>
@@ -27819,7 +27819,7 @@
         <f t="shared" si="15"/>
         <v>68128920</v>
       </c>
-      <c r="BA66" s="127">
+      <c r="BA66" s="122">
         <f t="shared" si="16"/>
         <v>59972.640845070426</v>
       </c>
@@ -27965,7 +27965,7 @@
         <f t="shared" si="15"/>
         <v>73174344</v>
       </c>
-      <c r="BA67" s="127">
+      <c r="BA67" s="122">
         <f t="shared" si="16"/>
         <v>58259.828025477706</v>
       </c>
@@ -28107,7 +28107,7 @@
         <f t="shared" si="15"/>
         <v>70640733</v>
       </c>
-      <c r="BA68" s="127">
+      <c r="BA68" s="122">
         <f t="shared" si="16"/>
         <v>58818.262281432137</v>
       </c>
@@ -28249,7 +28249,7 @@
         <f t="shared" si="15"/>
         <v>73764329</v>
       </c>
-      <c r="BA69" s="127">
+      <c r="BA69" s="122">
         <f t="shared" si="16"/>
         <v>56960.871814671817</v>
       </c>
@@ -28385,7 +28385,7 @@
         <f t="shared" ref="AZ70:AZ104" si="32">SUM(G70,N70,U70,AB70,AI70,AP70,AW70)</f>
         <v>71731194</v>
       </c>
-      <c r="BA70" s="127">
+      <c r="BA70" s="122">
         <f t="shared" ref="BA70:BA104" si="33">AZ70/AY70</f>
         <v>55605.576744186044</v>
       </c>
@@ -28527,7 +28527,7 @@
         <f t="shared" si="32"/>
         <v>74646502</v>
       </c>
-      <c r="BA71" s="127">
+      <c r="BA71" s="122">
         <f t="shared" si="33"/>
         <v>53204.919458303637</v>
       </c>
@@ -28673,7 +28673,7 @@
         <f t="shared" si="32"/>
         <v>69683673</v>
       </c>
-      <c r="BA72" s="127">
+      <c r="BA72" s="122">
         <f t="shared" si="33"/>
         <v>52790.661363636362</v>
       </c>
@@ -28815,7 +28815,7 @@
         <f t="shared" si="32"/>
         <v>48856165</v>
       </c>
-      <c r="BA73" s="127">
+      <c r="BA73" s="122">
         <f t="shared" si="33"/>
         <v>50680.669087136928</v>
       </c>
@@ -28951,7 +28951,7 @@
         <f t="shared" si="32"/>
         <v>46593442</v>
       </c>
-      <c r="BA74" s="127">
+      <c r="BA74" s="122">
         <f t="shared" si="33"/>
         <v>48133.721074380162</v>
       </c>
@@ -29093,7 +29093,7 @@
         <f t="shared" si="32"/>
         <v>53512476</v>
       </c>
-      <c r="BA75" s="127">
+      <c r="BA75" s="122">
         <f t="shared" si="33"/>
         <v>48869.841095890413</v>
       </c>
@@ -29229,7 +29229,7 @@
         <f t="shared" si="32"/>
         <v>51539183</v>
       </c>
-      <c r="BA76" s="127">
+      <c r="BA76" s="122">
         <f t="shared" si="33"/>
         <v>47153.872827081424</v>
       </c>
@@ -29361,7 +29361,7 @@
         <f t="shared" si="32"/>
         <v>41080853</v>
       </c>
-      <c r="BA77" s="127">
+      <c r="BA77" s="122">
         <f t="shared" si="33"/>
         <v>45900.394413407819</v>
       </c>
@@ -29497,7 +29497,7 @@
         <f t="shared" si="32"/>
         <v>34951209</v>
       </c>
-      <c r="BA78" s="127">
+      <c r="BA78" s="122">
         <f t="shared" si="33"/>
         <v>44523.83312101911</v>
       </c>
@@ -29631,7 +29631,7 @@
         <f t="shared" si="32"/>
         <v>33387978</v>
       </c>
-      <c r="BA79" s="127">
+      <c r="BA79" s="122">
         <f t="shared" si="33"/>
         <v>44339.944223107566</v>
       </c>
@@ -29763,7 +29763,7 @@
         <f t="shared" si="32"/>
         <v>29414888</v>
       </c>
-      <c r="BA80" s="127">
+      <c r="BA80" s="122">
         <f t="shared" si="33"/>
         <v>41961.323823109844</v>
       </c>
@@ -29899,7 +29899,7 @@
         <f t="shared" si="32"/>
         <v>26729263</v>
       </c>
-      <c r="BA81" s="127">
+      <c r="BA81" s="122">
         <f t="shared" si="33"/>
         <v>41505.066770186335</v>
       </c>
@@ -30023,7 +30023,7 @@
         <f t="shared" si="32"/>
         <v>24298983</v>
       </c>
-      <c r="BA82" s="127">
+      <c r="BA82" s="122">
         <f t="shared" si="33"/>
         <v>39769.202945990182</v>
       </c>
@@ -30155,7 +30155,7 @@
         <f t="shared" si="32"/>
         <v>20159424</v>
       </c>
-      <c r="BA83" s="127">
+      <c r="BA83" s="122">
         <f t="shared" si="33"/>
         <v>38398.902857142857</v>
       </c>
@@ -30287,7 +30287,7 @@
         <f t="shared" si="32"/>
         <v>17352480</v>
       </c>
-      <c r="BA84" s="127">
+      <c r="BA84" s="122">
         <f t="shared" si="33"/>
         <v>36151</v>
       </c>
@@ -30419,7 +30419,7 @@
         <f t="shared" si="32"/>
         <v>16127647</v>
       </c>
-      <c r="BA85" s="127">
+      <c r="BA85" s="122">
         <f t="shared" si="33"/>
         <v>35213.203056768558</v>
       </c>
@@ -30547,7 +30547,7 @@
         <f t="shared" si="32"/>
         <v>14228748</v>
       </c>
-      <c r="BA86" s="127">
+      <c r="BA86" s="122">
         <f t="shared" si="33"/>
         <v>33797.501187648457</v>
       </c>
@@ -30683,7 +30683,7 @@
         <f t="shared" si="32"/>
         <v>13621083</v>
       </c>
-      <c r="BA87" s="127">
+      <c r="BA87" s="122">
         <f t="shared" si="33"/>
         <v>33799.213399503722</v>
       </c>
@@ -30811,7 +30811,7 @@
         <f t="shared" si="32"/>
         <v>12689225</v>
       </c>
-      <c r="BA88" s="127">
+      <c r="BA88" s="122">
         <f t="shared" si="33"/>
         <v>31177.457002457002</v>
       </c>
@@ -30939,7 +30939,7 @@
         <f t="shared" si="32"/>
         <v>10471079</v>
       </c>
-      <c r="BA89" s="127">
+      <c r="BA89" s="122">
         <f t="shared" si="33"/>
         <v>30527.927113702623</v>
       </c>
@@ -31061,7 +31061,7 @@
         <f t="shared" si="32"/>
         <v>9126151</v>
       </c>
-      <c r="BA90" s="127">
+      <c r="BA90" s="122">
         <f t="shared" si="33"/>
         <v>29157.031948881788</v>
       </c>
@@ -31183,7 +31183,7 @@
         <f t="shared" si="32"/>
         <v>9253667</v>
       </c>
-      <c r="BA91" s="127">
+      <c r="BA91" s="122">
         <f t="shared" si="33"/>
         <v>28560.70061728395</v>
       </c>
@@ -31301,7 +31301,7 @@
         <f t="shared" si="32"/>
         <v>7719464</v>
       </c>
-      <c r="BA92" s="127">
+      <c r="BA92" s="122">
         <f t="shared" si="33"/>
         <v>28590.607407407406</v>
       </c>
@@ -31427,7 +31427,7 @@
         <f t="shared" si="32"/>
         <v>6478363</v>
       </c>
-      <c r="BA93" s="127">
+      <c r="BA93" s="122">
         <f t="shared" si="33"/>
         <v>27685.311965811965</v>
       </c>
@@ -31551,7 +31551,7 @@
         <f t="shared" si="32"/>
         <v>4762920</v>
       </c>
-      <c r="BA94" s="127">
+      <c r="BA94" s="122">
         <f t="shared" si="33"/>
         <v>25745.513513513513</v>
       </c>
@@ -31665,7 +31665,7 @@
         <f t="shared" si="32"/>
         <v>3744496</v>
       </c>
-      <c r="BA95" s="127">
+      <c r="BA95" s="122">
         <f t="shared" si="33"/>
         <v>25647.232876712329</v>
       </c>
@@ -31775,7 +31775,7 @@
         <f t="shared" si="32"/>
         <v>2230723</v>
       </c>
-      <c r="BA96" s="127">
+      <c r="BA96" s="122">
         <f t="shared" si="33"/>
         <v>24513.439560439561</v>
       </c>
@@ -31881,7 +31881,7 @@
         <f t="shared" si="32"/>
         <v>1866200</v>
       </c>
-      <c r="BA97" s="127">
+      <c r="BA97" s="122">
         <f t="shared" si="33"/>
         <v>24555.263157894737</v>
       </c>
@@ -31995,7 +31995,7 @@
         <f t="shared" si="32"/>
         <v>1310014</v>
       </c>
-      <c r="BA98" s="127">
+      <c r="BA98" s="122">
         <f t="shared" si="33"/>
         <v>24717.245283018867</v>
       </c>
@@ -32095,7 +32095,7 @@
         <f t="shared" si="32"/>
         <v>778066</v>
       </c>
-      <c r="BA99" s="127">
+      <c r="BA99" s="122">
         <f t="shared" si="33"/>
         <v>22884.294117647059</v>
       </c>
@@ -32199,7 +32199,7 @@
         <f t="shared" si="32"/>
         <v>269163</v>
       </c>
-      <c r="BA100" s="127">
+      <c r="BA100" s="122">
         <f t="shared" si="33"/>
         <v>24469.363636363636</v>
       </c>
@@ -32299,7 +32299,7 @@
         <f t="shared" si="32"/>
         <v>212776</v>
       </c>
-      <c r="BA101" s="127">
+      <c r="BA101" s="122">
         <f t="shared" si="33"/>
         <v>26597</v>
       </c>
@@ -32399,7 +32399,7 @@
         <f t="shared" si="32"/>
         <v>153277</v>
       </c>
-      <c r="BA102" s="127">
+      <c r="BA102" s="122">
         <f t="shared" si="33"/>
         <v>25546.166666666668</v>
       </c>
@@ -32491,7 +32491,7 @@
         <f t="shared" si="32"/>
         <v>37383</v>
       </c>
-      <c r="BA103" s="127">
+      <c r="BA103" s="122">
         <f t="shared" si="33"/>
         <v>18691.5</v>
       </c>
@@ -32573,7 +32573,7 @@
         <f t="shared" si="32"/>
         <v>45528</v>
       </c>
-      <c r="BA104" s="127">
+      <c r="BA104" s="122">
         <f t="shared" si="33"/>
         <v>22764</v>
       </c>
@@ -32612,14 +32612,14 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116"/>
-      <c r="B116" s="123" t="s">
+      <c r="B116" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="C116" s="123"/>
-      <c r="D116" s="123" t="s">
+      <c r="C116" s="127"/>
+      <c r="D116" s="127" t="s">
         <v>236</v>
       </c>
-      <c r="E116" s="123"/>
+      <c r="E116" s="127"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117"/>
@@ -39126,10 +39126,10 @@
         <v>414</v>
       </c>
       <c r="C3" s="45"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -39441,14 +39441,14 @@
       <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127" t="s">
         <v>323</v>
       </c>
-      <c r="E12" s="123"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -43563,10 +43563,10 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44243,8 +44243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
